--- a/data/pca/factorExposure/factorExposure_2012-08-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.003152676999116486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001657375292902292</v>
+      </c>
+      <c r="C2">
+        <v>0.02889886526728934</v>
+      </c>
+      <c r="D2">
+        <v>-0.004164299105235345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001077462033142402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.007098055937814533</v>
+      </c>
+      <c r="C4">
+        <v>0.08366813176877444</v>
+      </c>
+      <c r="D4">
+        <v>-0.06421018921695094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006127212965312918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01545704468844349</v>
+      </c>
+      <c r="C6">
+        <v>0.1187946036281433</v>
+      </c>
+      <c r="D6">
+        <v>-0.01915556070294561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>6.432536593398935e-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004434764979844554</v>
+      </c>
+      <c r="C7">
+        <v>0.05845673874387045</v>
+      </c>
+      <c r="D7">
+        <v>-0.03228591650178231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002430233731706072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005182431980134375</v>
+      </c>
+      <c r="C8">
+        <v>0.0370849318901668</v>
+      </c>
+      <c r="D8">
+        <v>-0.03657627913397951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-3.923149589526272e-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.006157682136021418</v>
+      </c>
+      <c r="C9">
+        <v>0.07415962822352835</v>
+      </c>
+      <c r="D9">
+        <v>-0.06967449211577249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.000395176586950718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.002103271587178838</v>
+      </c>
+      <c r="C10">
+        <v>0.04996555631103783</v>
+      </c>
+      <c r="D10">
+        <v>0.1851881506783734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0004678410934320932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.00689567863228316</v>
+      </c>
+      <c r="C11">
+        <v>0.08254287708733744</v>
+      </c>
+      <c r="D11">
+        <v>-0.06726531720797578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001438297000390988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.005082148734173612</v>
+      </c>
+      <c r="C12">
+        <v>0.06748891430933389</v>
+      </c>
+      <c r="D12">
+        <v>-0.04836844033270082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00301595752967109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009887509060760831</v>
+      </c>
+      <c r="C13">
+        <v>0.071777069619959</v>
+      </c>
+      <c r="D13">
+        <v>-0.05669779799889613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001638087804972995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.000703759252379494</v>
+      </c>
+      <c r="C14">
+        <v>0.04350177710424468</v>
+      </c>
+      <c r="D14">
+        <v>-0.01207987133990891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002500723148220016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006907451009622824</v>
+      </c>
+      <c r="C15">
+        <v>0.04114588875769296</v>
+      </c>
+      <c r="D15">
+        <v>-0.02490857001456476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0008065534437193655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005858394321085559</v>
+      </c>
+      <c r="C16">
+        <v>0.0671475416110056</v>
+      </c>
+      <c r="D16">
+        <v>-0.05735058014775475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.003665596056354834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009558596893507928</v>
+      </c>
+      <c r="C20">
+        <v>0.06535597541735608</v>
+      </c>
+      <c r="D20">
+        <v>-0.04919080003830913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005904020477418257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009252143175603465</v>
+      </c>
+      <c r="C21">
+        <v>0.01932608278128305</v>
+      </c>
+      <c r="D21">
+        <v>-0.03908207716907403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01910595590408683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007235677269915384</v>
+      </c>
+      <c r="C22">
+        <v>0.08644959129090124</v>
+      </c>
+      <c r="D22">
+        <v>-0.1158572834090381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01891804708199595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006962150745316205</v>
+      </c>
+      <c r="C23">
+        <v>0.08685319390158364</v>
+      </c>
+      <c r="D23">
+        <v>-0.1169708241163065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-3.666500804473586e-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.006634130549829994</v>
+      </c>
+      <c r="C24">
+        <v>0.07874584758258502</v>
+      </c>
+      <c r="D24">
+        <v>-0.06592990025527776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.001916391555566706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.004313026469474146</v>
+      </c>
+      <c r="C25">
+        <v>0.07974221829264475</v>
+      </c>
+      <c r="D25">
+        <v>-0.06334095624254704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.0005249866516149959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00400736349485637</v>
+      </c>
+      <c r="C26">
+        <v>0.03979304927467241</v>
+      </c>
+      <c r="D26">
+        <v>-0.02116449113504218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005835645738754633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.002016401527251334</v>
+      </c>
+      <c r="C28">
+        <v>0.09927356666165831</v>
+      </c>
+      <c r="D28">
+        <v>0.3264098695686422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>2.724673920817688e-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003569273203902652</v>
+      </c>
+      <c r="C29">
+        <v>0.04732697369702308</v>
+      </c>
+      <c r="D29">
+        <v>-0.009501714437733162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.001476774744639254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01054230650673625</v>
+      </c>
+      <c r="C30">
+        <v>0.1416117074303123</v>
+      </c>
+      <c r="D30">
+        <v>-0.1073221664963886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002670352030516875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006692760607912933</v>
+      </c>
+      <c r="C31">
+        <v>0.04427050221521393</v>
+      </c>
+      <c r="D31">
+        <v>-0.02843842588566162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003703295190544277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004383076385968272</v>
+      </c>
+      <c r="C32">
+        <v>0.03808683697362527</v>
+      </c>
+      <c r="D32">
+        <v>-0.01680741813188675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001452484861563484</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.009756579874400194</v>
+      </c>
+      <c r="C33">
+        <v>0.09235509929075812</v>
+      </c>
+      <c r="D33">
+        <v>-0.06082687688984335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-1.907365334508925e-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.005410169379401349</v>
+      </c>
+      <c r="C34">
+        <v>0.06006187413122627</v>
+      </c>
+      <c r="D34">
+        <v>-0.05711007535084202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00190571033572009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005311739341634323</v>
+      </c>
+      <c r="C35">
+        <v>0.04052149355688123</v>
+      </c>
+      <c r="D35">
+        <v>-0.01401749400861643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004593529630254087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001404929728021611</v>
+      </c>
+      <c r="C36">
+        <v>0.02530972373500161</v>
+      </c>
+      <c r="D36">
+        <v>-0.02030498958333013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.005016451039111065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009155599618528989</v>
+      </c>
+      <c r="C38">
+        <v>0.03873229775419174</v>
+      </c>
+      <c r="D38">
+        <v>-0.0126251316934349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.008685373293749158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.000221987885686809</v>
+      </c>
+      <c r="C39">
+        <v>0.1145105665527503</v>
+      </c>
+      <c r="D39">
+        <v>-0.08343672931152471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.002896798557998085</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003169657110183244</v>
+      </c>
+      <c r="C40">
+        <v>0.09030391151392041</v>
+      </c>
+      <c r="D40">
+        <v>-0.01548132964326688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.003624000739687496</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.0079509679037998</v>
+      </c>
+      <c r="C41">
+        <v>0.04180549413962722</v>
+      </c>
+      <c r="D41">
+        <v>-0.04444348893797818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.000932738798096377</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004381859350729793</v>
+      </c>
+      <c r="C43">
+        <v>0.05386978543776869</v>
+      </c>
+      <c r="D43">
+        <v>-0.02696605432117965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0061744263619576</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00264463476315207</v>
+      </c>
+      <c r="C44">
+        <v>0.1050233686965326</v>
+      </c>
+      <c r="D44">
+        <v>-0.06246930478361535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001663054049857626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.0009332963829136958</v>
+      </c>
+      <c r="C46">
+        <v>0.03195303090895296</v>
+      </c>
+      <c r="D46">
+        <v>-0.03423945263226728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002883462227384891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.003357685887382839</v>
+      </c>
+      <c r="C47">
+        <v>0.03536773330428056</v>
+      </c>
+      <c r="D47">
+        <v>-0.01949884428857326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00467090989613362</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.007857503285738818</v>
+      </c>
+      <c r="C48">
+        <v>0.03224265063134358</v>
+      </c>
+      <c r="D48">
+        <v>-0.02741887473761164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.007548005230419947</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01957549273219359</v>
+      </c>
+      <c r="C49">
+        <v>0.1878256561480835</v>
+      </c>
+      <c r="D49">
+        <v>-0.01098165928252267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0001553744264638625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.004412260277056693</v>
+      </c>
+      <c r="C50">
+        <v>0.04289067452214367</v>
+      </c>
+      <c r="D50">
+        <v>-0.03743119065407781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>4.06746550035474e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.003950915089201164</v>
+      </c>
+      <c r="C51">
+        <v>0.0280297972021072</v>
+      </c>
+      <c r="D51">
+        <v>-0.02364702395043998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01012743147306809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0227760225657086</v>
+      </c>
+      <c r="C53">
+        <v>0.1723633138604118</v>
+      </c>
+      <c r="D53">
+        <v>-0.01964195544079987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003706496279864733</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.009688617477413695</v>
+      </c>
+      <c r="C54">
+        <v>0.05756582142659536</v>
+      </c>
+      <c r="D54">
+        <v>-0.03880868128932399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003117128856143276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.01074861483983698</v>
+      </c>
+      <c r="C55">
+        <v>0.1094015458556251</v>
+      </c>
+      <c r="D55">
+        <v>-0.03235404772585469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01042566286546711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02211791577091458</v>
+      </c>
+      <c r="C56">
+        <v>0.1731153863764177</v>
+      </c>
+      <c r="D56">
+        <v>-0.0154551699019584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00292966188985678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01787783883759691</v>
+      </c>
+      <c r="C58">
+        <v>0.1064067287449949</v>
+      </c>
+      <c r="D58">
+        <v>-0.0571404184232519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.001312247369484685</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01010709674115766</v>
+      </c>
+      <c r="C59">
+        <v>0.1662967921299198</v>
+      </c>
+      <c r="D59">
+        <v>0.3505810350153648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.0104671354179973</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02740449043669281</v>
+      </c>
+      <c r="C60">
+        <v>0.2241499500526581</v>
+      </c>
+      <c r="D60">
+        <v>-0.01860567931448377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.00842308664540368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001284440818438111</v>
+      </c>
+      <c r="C61">
+        <v>0.09518709149251524</v>
+      </c>
+      <c r="D61">
+        <v>-0.0607595158426315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1498782997077396</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1551381052511242</v>
+      </c>
+      <c r="C62">
+        <v>0.1031028751559721</v>
+      </c>
+      <c r="D62">
+        <v>-0.01683560823931428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001741776783333175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006820678542422805</v>
+      </c>
+      <c r="C63">
+        <v>0.05354765605252138</v>
+      </c>
+      <c r="D63">
+        <v>-0.03258337925950511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01013166409009893</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01759095120414955</v>
+      </c>
+      <c r="C64">
+        <v>0.109247021331153</v>
+      </c>
+      <c r="D64">
+        <v>-0.05074747800310044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008707920301178361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01785903279908939</v>
+      </c>
+      <c r="C65">
+        <v>0.1191644949856949</v>
+      </c>
+      <c r="D65">
+        <v>-0.02055840514373113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.001115546063434398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01401017920466583</v>
+      </c>
+      <c r="C66">
+        <v>0.1636225414922427</v>
+      </c>
+      <c r="D66">
+        <v>-0.1156966671640949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.008738099771564416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01579929837794863</v>
+      </c>
+      <c r="C67">
+        <v>0.07198213638591322</v>
+      </c>
+      <c r="D67">
+        <v>-0.02522892411579294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004087579358211339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0001192676106692036</v>
+      </c>
+      <c r="C68">
+        <v>0.08042999071644866</v>
+      </c>
+      <c r="D68">
+        <v>0.2618466950550254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.0006833865570126525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006583468352384269</v>
+      </c>
+      <c r="C69">
+        <v>0.05234733191759672</v>
+      </c>
+      <c r="D69">
+        <v>-0.03602956767348797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001667557755700393</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.002709970026093409</v>
+      </c>
+      <c r="C70">
+        <v>0.00899879823422337</v>
+      </c>
+      <c r="D70">
+        <v>0.001779099798348809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.000549977370777794</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.004837401226653977</v>
+      </c>
+      <c r="C71">
+        <v>0.08579553561135968</v>
+      </c>
+      <c r="D71">
+        <v>0.3035747740701574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.007423989077740321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01894279471365377</v>
+      </c>
+      <c r="C72">
+        <v>0.1577816617137519</v>
+      </c>
+      <c r="D72">
+        <v>-0.009488383050446705</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01402410327871375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03282347050827892</v>
+      </c>
+      <c r="C73">
+        <v>0.2811294007274012</v>
+      </c>
+      <c r="D73">
+        <v>-0.05465660361583334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004436019663546969</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002383158219605163</v>
+      </c>
+      <c r="C74">
+        <v>0.1034527050792445</v>
+      </c>
+      <c r="D74">
+        <v>-0.03123510213236956</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.001602429818944972</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01283089022654968</v>
+      </c>
+      <c r="C75">
+        <v>0.1193233064419467</v>
+      </c>
+      <c r="D75">
+        <v>-0.02627160889846917</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01260892416509797</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02326153207806088</v>
+      </c>
+      <c r="C76">
+        <v>0.1458440312113397</v>
+      </c>
+      <c r="D76">
+        <v>-0.05519657224980708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0101917980186233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02160931810852835</v>
+      </c>
+      <c r="C77">
+        <v>0.1075882674791569</v>
+      </c>
+      <c r="D77">
+        <v>-0.04748896443453908</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005665371984586601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01492291806450657</v>
+      </c>
+      <c r="C78">
+        <v>0.1017120298224806</v>
+      </c>
+      <c r="D78">
+        <v>-0.07844109571601855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02933067835527418</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.04012561576557294</v>
+      </c>
+      <c r="C79">
+        <v>0.15674359630873</v>
+      </c>
+      <c r="D79">
+        <v>-0.02890387261349541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006704229387586742</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.009915509260249001</v>
+      </c>
+      <c r="C80">
+        <v>0.03928296470783936</v>
+      </c>
+      <c r="D80">
+        <v>-0.03062421213892376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.006783705349643924</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01705002493368621</v>
+      </c>
+      <c r="C81">
+        <v>0.1320480409593264</v>
+      </c>
+      <c r="D81">
+        <v>-0.0340396220330733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.009091412167208853</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02079210878061785</v>
+      </c>
+      <c r="C82">
+        <v>0.1368551294115907</v>
+      </c>
+      <c r="D82">
+        <v>-0.03555393275306565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004199061724526137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01235462633792352</v>
+      </c>
+      <c r="C83">
+        <v>0.06515572353890735</v>
+      </c>
+      <c r="D83">
+        <v>-0.0448362396463748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.003629817168547754</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.00709672505824478</v>
+      </c>
+      <c r="C84">
+        <v>0.03582856272670151</v>
+      </c>
+      <c r="D84">
+        <v>-0.01283094632363697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0204435243623765</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.03009605899636441</v>
+      </c>
+      <c r="C85">
+        <v>0.1232833101119798</v>
+      </c>
+      <c r="D85">
+        <v>-0.03962443598742779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00241140866567273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004029230693181777</v>
+      </c>
+      <c r="C86">
+        <v>0.05032031243299974</v>
+      </c>
+      <c r="D86">
+        <v>-0.0220071064986967</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003902153049652631</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01295270319611548</v>
+      </c>
+      <c r="C87">
+        <v>0.1293882306258136</v>
+      </c>
+      <c r="D87">
+        <v>-0.07107986661530229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.00783430457365094</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002662090624726538</v>
+      </c>
+      <c r="C88">
+        <v>0.0635049902767286</v>
+      </c>
+      <c r="D88">
+        <v>-0.0273699727669305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009911202008626272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002089441086672531</v>
+      </c>
+      <c r="C89">
+        <v>0.129291849663792</v>
+      </c>
+      <c r="D89">
+        <v>0.3221143693177979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.000929007985511557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.005198499501086295</v>
+      </c>
+      <c r="C90">
+        <v>0.1132842563881334</v>
+      </c>
+      <c r="D90">
+        <v>0.3159816724640284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002851942071917583</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01136664731827766</v>
+      </c>
+      <c r="C91">
+        <v>0.09795810495883385</v>
+      </c>
+      <c r="D91">
+        <v>-0.0266511922135851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.004819775256229126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-4.100762672797997e-05</v>
+      </c>
+      <c r="C92">
+        <v>0.1241128898862032</v>
+      </c>
+      <c r="D92">
+        <v>0.3265529677430275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001147069516043689</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.003347792796034539</v>
+      </c>
+      <c r="C93">
+        <v>0.1022232137487671</v>
+      </c>
+      <c r="D93">
+        <v>0.3009711960169251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01198969811084018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0228525504122129</v>
+      </c>
+      <c r="C94">
+        <v>0.136249500211848</v>
+      </c>
+      <c r="D94">
+        <v>-0.05356565376328496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.008785772353017467</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01799368015314882</v>
+      </c>
+      <c r="C95">
+        <v>0.1221170177763713</v>
+      </c>
+      <c r="D95">
+        <v>-0.0664116725884662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01860666523896022</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03858590840541641</v>
+      </c>
+      <c r="C97">
+        <v>0.2250220817438506</v>
+      </c>
+      <c r="D97">
+        <v>0.007388257436868707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01510476966945189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.04096894547316064</v>
+      </c>
+      <c r="C98">
+        <v>0.2637834923485131</v>
+      </c>
+      <c r="D98">
+        <v>-0.0314161401803276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9862091662077187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9795743848288754</v>
+      </c>
+      <c r="C99">
+        <v>-0.1280706132298645</v>
+      </c>
+      <c r="D99">
+        <v>0.02546565162024917</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>2.458010092333356e-08</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003560071412042179</v>
+      </c>
+      <c r="C101">
+        <v>0.04751467020075061</v>
+      </c>
+      <c r="D101">
+        <v>-0.0101528911146152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
